--- a/Documentation/Pack Voltage Rev 1 Full BOM.xlsx
+++ b/Documentation/Pack Voltage Rev 1 Full BOM.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b431e84c343b5b9e/Documents/GitHub/PackVoltage_Hardware/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFA70C19-7E72-4C2F-BE66-4143E668B06D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="249" documentId="8_{FFA70C19-7E72-4C2F-BE66-4143E668B06D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{815CF2B1-EC1A-4DF7-9060-766CFC9C82BC}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PackVoltage_2021_Rev1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="189">
   <si>
     <t>Id</t>
   </si>
@@ -67,15 +78,6 @@
     <t>LOGO</t>
   </si>
   <si>
-    <t>REF**,REF**,REF**,REF**</t>
-  </si>
-  <si>
-    <t>4_40_Hole_Corner</t>
-  </si>
-  <si>
-    <t>4_40_Hole</t>
-  </si>
-  <si>
     <t>Conn6</t>
   </si>
   <si>
@@ -175,12 +177,6 @@
     <t>Current Sensor</t>
   </si>
   <si>
-    <t>296-INA281A1IDBVRTR-ND</t>
-  </si>
-  <si>
-    <t>INA281A1IDBVR Texas Instruments | Integrated Circuits (ICs) | DigiKey</t>
-  </si>
-  <si>
     <t>Q3,Q1,Q2,Q4,Q5,Q7,Q10,Q6,Q8,Q9</t>
   </si>
   <si>
@@ -193,12 +189,6 @@
     <t>MOSFET</t>
   </si>
   <si>
-    <t>1727-2594-2-ND</t>
-  </si>
-  <si>
-    <t>PSMN025-80YLX Nexperia USA Inc. | Discrete Semiconductor Products | DigiKey</t>
-  </si>
-  <si>
     <t>U3,U1,U2,U7,U8,U15,U21,U14,U16,U20</t>
   </si>
   <si>
@@ -217,15 +207,6 @@
     <t>10 uF Capacitor</t>
   </si>
   <si>
-    <t>490-10728-1-ND</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/murata-electronics/GRM188R61C106KAALD/490-10728-1-ND/5251372</t>
-  </si>
-  <si>
-    <t>minimum order - 4000</t>
-  </si>
-  <si>
     <t>R6,R4,R5,R12,R13,R23,R31,R22,R24,R30</t>
   </si>
   <si>
@@ -271,9 +252,6 @@
     <t>Anderson_2_Vertical_Sidy_by_Side</t>
   </si>
   <si>
-    <t>Motor 1</t>
-  </si>
-  <si>
     <t>Conn2</t>
   </si>
   <si>
@@ -283,81 +261,15 @@
     <t>Conn3</t>
   </si>
   <si>
-    <t>Motor 2</t>
-  </si>
-  <si>
-    <t>Conn4</t>
-  </si>
-  <si>
-    <t>12 V</t>
-  </si>
-  <si>
-    <t>Conn7</t>
-  </si>
-  <si>
-    <t>Motor 3</t>
-  </si>
-  <si>
-    <t>Conn8</t>
-  </si>
-  <si>
-    <t>Vaccum</t>
-  </si>
-  <si>
-    <t>Conn9</t>
-  </si>
-  <si>
-    <t>Motor 4</t>
-  </si>
-  <si>
-    <t>Conn10</t>
-  </si>
-  <si>
-    <t>Driveboard</t>
-  </si>
-  <si>
-    <t>Conn11</t>
-  </si>
-  <si>
-    <t>Auxiliary</t>
-  </si>
-  <si>
-    <t>Conn12</t>
-  </si>
-  <si>
-    <t>Spare</t>
-  </si>
-  <si>
     <t>F1,F2,F3,F4,F5,F6,F9,F10</t>
   </si>
   <si>
-    <t>ATC_Fuse_Block</t>
-  </si>
-  <si>
     <t>F7</t>
   </si>
   <si>
     <t>F8</t>
   </si>
   <si>
-    <t>GND1</t>
-  </si>
-  <si>
-    <t>BATT_PWR_VIA</t>
-  </si>
-  <si>
-    <t>Via</t>
-  </si>
-  <si>
-    <t>J3V1,J5V1</t>
-  </si>
-  <si>
-    <t>TestPoint_Pad_2.5x2.5mm</t>
-  </si>
-  <si>
-    <t>Test_Point</t>
-  </si>
-  <si>
     <t>R17</t>
   </si>
   <si>
@@ -400,17 +312,303 @@
     <t>https://www.digikey.com/product-detail/en/murata-power-solutions-inc/OKI-78SR-5-1.5-W36H-C/811-2692-ND/3438675</t>
   </si>
   <si>
-    <t>V1</t>
+    <t>WM4827-ND</t>
+  </si>
+  <si>
+    <t>WM4130-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/molex-connector-corporation/70543-0114/WM4130-ND/1643363</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/molex-llc/0705430039/WM4827-ND/313742</t>
+  </si>
+  <si>
+    <t>Manufacturer Number</t>
+  </si>
+  <si>
+    <t>Pack Voltage</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>Blue Anderson</t>
+  </si>
+  <si>
+    <t>Black Anderson</t>
+  </si>
+  <si>
+    <t>399-C0603C106M8PAC7411CT-ND</t>
+  </si>
+  <si>
+    <t>C0603C106M8PAC7411</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/texas-instruments/INA281A1IDBVR/13238587?s=N4IgTCBcDa4JwDYC0BJAcgQTADgIwdxQBEAhANQCUAVCpNIkAXQF8g</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/nexperia-usa-inc/PSMN025-80YLX/5981422?s=N4IgTCBcDaIIwHYwILRgKwE4AsaUDkAREAXQF8g</t>
+  </si>
+  <si>
+    <t>PSMN025-80YLX</t>
+  </si>
+  <si>
+    <t>INA281A1IDBVR</t>
+  </si>
+  <si>
+    <t>EK-TM4C129EXL</t>
+  </si>
+  <si>
+    <t>CL10B104KO8NNNC</t>
+  </si>
+  <si>
+    <t>LTST-C191KGKT</t>
+  </si>
+  <si>
+    <t>1727-2594-1-ND</t>
+  </si>
+  <si>
+    <t>LT1910ES8#TRPBFCT-ND</t>
+  </si>
+  <si>
+    <t>Gatedriver</t>
+  </si>
+  <si>
+    <t>LT1910ES8#TRPBF</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/analog-devices-inc/LT1910ES8-TRPBF/958723?s=N4IgTCBcDaIDIBUCMBOJAGAogZQBwGIEAlABQCEAxAYQQFoA5AERAF0BfIA</t>
+  </si>
+  <si>
+    <t>5 Connector Molex</t>
+  </si>
+  <si>
+    <t>10 Connector Molex</t>
+  </si>
+  <si>
+    <t>Pink Anderson</t>
+  </si>
+  <si>
+    <t>1327G8</t>
+  </si>
+  <si>
+    <t>1327G22</t>
+  </si>
+  <si>
+    <t>1327G6</t>
+  </si>
+  <si>
+    <t>PCB Vertical Contact</t>
+  </si>
+  <si>
+    <t>Anderson Contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1335G1 </t>
+  </si>
+  <si>
+    <t>https://powerwerx.com/1327g8bk-anderson-powerpole-housing-blue</t>
+  </si>
+  <si>
+    <t>https://powerwerx.com/1327g22bk-anderson-powerpole-housing-pink</t>
+  </si>
+  <si>
+    <t>https://powerwerx.com/1327g6bk-anderson-powerpole-housing-black</t>
+  </si>
+  <si>
+    <t>https://powerwerx.com/anderson-1335g1-printed-circuit-board-vertical</t>
+  </si>
+  <si>
+    <t>Powerwerx</t>
+  </si>
+  <si>
+    <t>Fuse</t>
+  </si>
+  <si>
+    <t>Fuse Block</t>
+  </si>
+  <si>
+    <t>20 Amp Fuse</t>
+  </si>
+  <si>
+    <t>10 Amp Fuse</t>
+  </si>
+  <si>
+    <t>15 Amp Fuse</t>
+  </si>
+  <si>
+    <t>0287020.PXCN</t>
+  </si>
+  <si>
+    <t>0287015.PXCN</t>
+  </si>
+  <si>
+    <t>0ATO010.V</t>
+  </si>
+  <si>
+    <t>F4201-ND</t>
+  </si>
+  <si>
+    <t>F4200-ND</t>
+  </si>
+  <si>
+    <t>F5042-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/littelfuse-inc/0287020-PXCN/2519821?s=N4IgTCBcDaIGIBYwAYCMIC6BfIA</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/littelfuse-inc/0287015-pxcn/2519816</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/littelfuse-inc/0ATO010-V/2519108</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/kemet/C0603C106M8PAC7411/12701345?s=N4IgTCBcDaIMwE4EFoDCAGAbOuqCMWAsgBwAKAgqgOwAseeqAKsgHIAiIAugL5A</t>
+  </si>
+  <si>
+    <t>36-3557-2-ND</t>
+  </si>
+  <si>
+    <t>3557-2</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/keystone-electronics/3557-2/2137305</t>
+  </si>
+  <si>
+    <t>YAG5993CT-ND</t>
+  </si>
+  <si>
+    <t>3.3k Resistor</t>
+  </si>
+  <si>
+    <t>RT0603BRE103K3L</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/yageo/RT0603BRE103K3L/9370958</t>
+  </si>
+  <si>
+    <t>5.1k Resistor</t>
+  </si>
+  <si>
+    <t>RHM5.1KDCT-ND</t>
+  </si>
+  <si>
+    <t>ESR03EZPJ512</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/rohm-semiconductor/ESR03EZPJ512/1762735</t>
+  </si>
+  <si>
+    <t>A129569CT-ND</t>
+  </si>
+  <si>
+    <t>2.5 mOhm Resistor</t>
+  </si>
+  <si>
+    <t>TLR3A20KR0025FTDG</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/te-connectivity-passive-product/TLR3A20KR0025FTDG/5584880</t>
+  </si>
+  <si>
+    <t>1.5KE36ALFCT-ND</t>
+  </si>
+  <si>
+    <t>1.5KE36A</t>
+  </si>
+  <si>
+    <t>Diode</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/littelfuse-inc/1-5KE36A/688027?s=N4IgTCBcDaIIwDoCsBpAogZgGwEEAyAYgMIAqAtAHIAiIAugL5A</t>
+  </si>
+  <si>
+    <t>P12400-ND</t>
+  </si>
+  <si>
+    <t>470uF Capacitor</t>
+  </si>
+  <si>
+    <t>EEU-FM1H471</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/panasonic-electronic-components/EEU-FM1H471/613761</t>
+  </si>
+  <si>
+    <t>22uF Capacitor</t>
+  </si>
+  <si>
+    <t>ECE-A1HKA220</t>
+  </si>
+  <si>
+    <t>P837-ND</t>
+  </si>
+  <si>
+    <t>493-13472-1-ND</t>
+  </si>
+  <si>
+    <t>47 uF Capacitor</t>
+  </si>
+  <si>
+    <t>UVZ1H470MED1TD</t>
+  </si>
+  <si>
+    <t>330 Ohm Resistor</t>
+  </si>
+  <si>
+    <t>RHM330DCT-ND</t>
+  </si>
+  <si>
+    <t>ESR03EZPJ331</t>
+  </si>
+  <si>
+    <t>RHM510DCT-ND</t>
+  </si>
+  <si>
+    <t>510 Ohm Resistor</t>
+  </si>
+  <si>
+    <t>ESR03EZPJ511</t>
+  </si>
+  <si>
+    <t>311-1.2KDCT-ND</t>
+  </si>
+  <si>
+    <t>1.2k Ohm Resistor</t>
+  </si>
+  <si>
+    <t>RT0603DRD071K2L</t>
+  </si>
+  <si>
+    <t>296-INA281A1IDBVRCT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/panasonic-electronic-components/ECE-A1HKA220/44769?s=N4IgTCBcDaIAoA4DMB2AtAOQCIgLoF8g</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/nichicon/UVZ1H470MED1TD/4342183?s=N4IgTCBcDaICwE4DMBaAjEuB2M6UDkAREAXQF8g</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/rohm-semiconductor/ESR03EZPJ511/1762734?s=N4IgTCBcDaIEoAkCyBWAjABgCIGEAqAtAHJYgC6AvkA</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/rohm-semiconductor/ESR03EZPJ331/1762730?s=N4IgTCBcDaIEoAkCyBmFAGAIgYQCoFoA5TEAXQF8g</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/yageo/RT0603DRD071K2L/1035462?s=N4IgTCBcDaIEoBUAMA2JBmAInTSDsAjANJgAyIAugL5A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -545,6 +743,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -727,7 +946,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -842,8 +1061,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -886,12 +1120,21 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -925,6 +1168,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1244,12 +1488,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="144.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.6328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -1270,6 +1531,9 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>97</v>
+      </c>
       <c r="J1" t="s">
         <v>6</v>
       </c>
@@ -1305,13 +1569,15 @@
       <c r="K2">
         <v>1</v>
       </c>
+      <c r="L2" s="5"/>
       <c r="N2" s="1">
+        <f t="shared" ref="N2:N12" si="0">L2*K2</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -1322,16 +1588,35 @@
       <c r="D3" t="s">
         <v>17</v>
       </c>
+      <c r="F3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3">
+        <v>705430039</v>
+      </c>
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
       <c r="K3">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="L3" s="7">
+        <v>1.1499999999999999</v>
       </c>
       <c r="N3" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -1342,16 +1627,35 @@
       <c r="D4" t="s">
         <v>20</v>
       </c>
+      <c r="F4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H4">
+        <v>705430114</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
       <c r="K4">
         <v>1</v>
       </c>
+      <c r="L4" s="5">
+        <v>1.84</v>
+      </c>
       <c r="N4" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.84</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
@@ -1359,840 +1663,1041 @@
       <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
+      <c r="D5">
+        <v>3300</v>
+      </c>
+      <c r="F5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0.38</v>
       </c>
       <c r="N5" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.42</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6">
-        <v>3300</v>
+      <c r="F6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G6" t="s">
+        <v>153</v>
+      </c>
+      <c r="H6" t="s">
+        <v>154</v>
+      </c>
+      <c r="J6" t="s">
+        <v>30</v>
       </c>
       <c r="K6">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="L6" s="5">
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="N6" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.72</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
         <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
       <c r="K7">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.14099999999999999</v>
       </c>
       <c r="N7" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.6919999999999997</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" t="s">
+        <v>109</v>
+      </c>
+      <c r="J8" t="s">
         <v>30</v>
       </c>
-      <c r="F8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" t="s">
-        <v>33</v>
-      </c>
       <c r="K8">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L8" s="1">
-        <v>0.26</v>
+        <v>0.1</v>
       </c>
       <c r="N8" s="1">
-        <v>1.93</v>
-      </c>
-      <c r="O8" t="s">
-        <v>34</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="H9" t="s">
+        <v>108</v>
       </c>
       <c r="J9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L9" s="1">
-        <v>0.1</v>
+        <v>30</v>
       </c>
       <c r="N9" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="O9" t="s">
-        <v>40</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>183</v>
+      </c>
+      <c r="H10" t="s">
+        <v>107</v>
       </c>
       <c r="J10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L10" s="1">
-        <v>30</v>
+        <v>2.36</v>
       </c>
       <c r="N10" s="1">
-        <v>30</v>
-      </c>
-      <c r="O10" t="s">
-        <v>46</v>
+        <f t="shared" si="0"/>
+        <v>23.599999999999998</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>111</v>
+      </c>
+      <c r="H11" t="s">
+        <v>106</v>
       </c>
       <c r="J11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K11">
         <v>10</v>
       </c>
       <c r="L11" s="1">
-        <v>2.36</v>
+        <v>0.65</v>
       </c>
       <c r="N11" s="1">
-        <v>21.2</v>
-      </c>
-      <c r="O11" t="s">
-        <v>52</v>
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
         <v>53</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>54</v>
       </c>
-      <c r="D12" t="s">
-        <v>55</v>
-      </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="G12" t="s">
-        <v>57</v>
+        <v>112</v>
+      </c>
+      <c r="H12" t="s">
+        <v>114</v>
       </c>
       <c r="J12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K12">
         <v>10</v>
       </c>
       <c r="L12" s="1">
-        <v>0.65</v>
+        <v>5.25</v>
       </c>
       <c r="N12" s="1">
-        <v>5.57</v>
-      </c>
-      <c r="O12" t="s">
-        <v>58</v>
+        <f t="shared" si="0"/>
+        <v>52.5</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H13" t="s">
+        <v>103</v>
+      </c>
+      <c r="J13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" t="s">
-        <v>61</v>
-      </c>
-      <c r="K13">
-        <v>10</v>
+      <c r="L13" s="1">
+        <v>0.32300000000000001</v>
       </c>
       <c r="N13" s="1">
-        <v>0</v>
+        <f>L13*K13</f>
+        <v>3.8760000000000003</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" t="s">
-        <v>63</v>
+        <v>59</v>
+      </c>
+      <c r="D14">
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="F14" t="s">
-        <v>64</v>
+        <v>157</v>
       </c>
       <c r="G14" t="s">
-        <v>65</v>
+        <v>156</v>
+      </c>
+      <c r="H14" t="s">
+        <v>158</v>
       </c>
       <c r="J14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K14">
-        <v>12</v>
-      </c>
-      <c r="L14" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="N14" s="1">
-        <v>353.06</v>
-      </c>
-      <c r="O14" t="s">
-        <v>66</v>
-      </c>
-      <c r="P14" t="s">
-        <v>67</v>
+        <v>10</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="N14" s="5">
+        <f>L14*K14</f>
+        <v>7.26</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15">
-        <v>2.5000000000000001E-3</v>
+        <v>61</v>
+      </c>
+      <c r="D15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" t="s">
+        <v>162</v>
+      </c>
+      <c r="G15" t="s">
+        <v>160</v>
+      </c>
+      <c r="H15" t="s">
+        <v>161</v>
+      </c>
+      <c r="J15" t="s">
+        <v>30</v>
       </c>
       <c r="K15">
-        <v>10</v>
-      </c>
-      <c r="N15" s="1">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="N15" s="5">
+        <f t="shared" ref="N15:N29" si="1">L15*K15</f>
+        <v>1.24</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" t="s">
+        <v>165</v>
+      </c>
+      <c r="G16" t="s">
+        <v>164</v>
+      </c>
+      <c r="H16" t="s">
+        <v>166</v>
+      </c>
+      <c r="J16" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="N16" s="5">
+        <f t="shared" si="1"/>
+        <v>3.4</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" t="s">
+        <v>168</v>
+      </c>
+      <c r="G17" t="s">
+        <v>170</v>
+      </c>
+      <c r="H17" t="s">
+        <v>169</v>
+      </c>
+      <c r="J17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="N17" s="5">
+        <f t="shared" si="1"/>
+        <v>0.46</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" t="s">
         <v>70</v>
       </c>
-      <c r="C16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" t="s">
-        <v>72</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="N16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" t="s">
-        <v>75</v>
-      </c>
-      <c r="K17">
-        <v>4</v>
-      </c>
-      <c r="N17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" t="s">
-        <v>78</v>
+      <c r="F18" t="s">
+        <v>172</v>
+      </c>
+      <c r="G18" t="s">
+        <v>171</v>
+      </c>
+      <c r="H18" t="s">
+        <v>173</v>
+      </c>
+      <c r="J18" t="s">
+        <v>30</v>
       </c>
       <c r="K18">
         <v>2</v>
       </c>
-      <c r="N18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L18" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N18" s="5">
+        <f t="shared" si="1"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D19" t="s">
-        <v>80</v>
+        <v>98</v>
+      </c>
+      <c r="F19" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J19" t="s">
+        <v>129</v>
       </c>
       <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="N19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+      <c r="L19" s="5">
+        <v>0.37</v>
+      </c>
+      <c r="N19" s="5">
+        <f t="shared" si="1"/>
+        <v>4.4399999999999995</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D20" t="s">
-        <v>83</v>
+        <v>74</v>
+      </c>
+      <c r="F20" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J20" t="s">
+        <v>129</v>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
-      <c r="N20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L20" s="5">
+        <v>0.39</v>
+      </c>
+      <c r="N20" s="5">
+        <f t="shared" si="1"/>
+        <v>0.39</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D21" t="s">
-        <v>85</v>
+        <v>99</v>
+      </c>
+      <c r="F21" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J21" t="s">
+        <v>129</v>
       </c>
       <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="N21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" t="s">
-        <v>87</v>
+        <v>12</v>
+      </c>
+      <c r="L21" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="N21" s="5">
+        <f t="shared" si="1"/>
+        <v>4.1999999999999993</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C22" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J22" t="s">
+        <v>129</v>
       </c>
       <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="N22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="L22" s="5">
+        <v>0.59</v>
+      </c>
+      <c r="N22" s="5">
+        <f t="shared" si="1"/>
+        <v>14.16</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" t="s">
-        <v>89</v>
+        <v>130</v>
+      </c>
+      <c r="D23">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J23" t="s">
+        <v>30</v>
       </c>
       <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="N23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="L23" s="5">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="N23" s="5">
+        <f t="shared" si="1"/>
+        <v>2.1760000000000002</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" t="s">
-        <v>91</v>
+        <v>130</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>133</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J24" t="s">
+        <v>30</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
-      <c r="N24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L24" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="N24" s="5">
+        <f t="shared" si="1"/>
+        <v>0.88</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" t="s">
-        <v>93</v>
+        <v>130</v>
+      </c>
+      <c r="D25">
+        <v>15</v>
+      </c>
+      <c r="F25" t="s">
+        <v>134</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J25" t="s">
+        <v>30</v>
       </c>
       <c r="K25">
         <v>1</v>
       </c>
-      <c r="N25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>94</v>
-      </c>
+      <c r="L25" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N25" s="5">
+        <f t="shared" si="1"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C26" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" t="s">
-        <v>95</v>
+        <v>131</v>
+      </c>
+      <c r="F26" t="s">
+        <v>131</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J26" t="s">
+        <v>30</v>
       </c>
       <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="N26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="L26" s="5">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="N26" s="5">
+        <f t="shared" si="1"/>
+        <v>11.6</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" t="s">
-        <v>97</v>
+        <v>22</v>
+      </c>
+      <c r="D27">
+        <v>510</v>
+      </c>
+      <c r="F27" t="s">
+        <v>178</v>
+      </c>
+      <c r="G27" t="s">
+        <v>177</v>
+      </c>
+      <c r="H27" t="s">
+        <v>179</v>
+      </c>
+      <c r="J27" t="s">
+        <v>30</v>
       </c>
       <c r="K27">
         <v>1</v>
       </c>
-      <c r="N27" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L27" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="N27" s="5">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" t="s">
-        <v>99</v>
+        <v>22</v>
+      </c>
+      <c r="D28">
+        <v>330</v>
+      </c>
+      <c r="F28" t="s">
+        <v>174</v>
+      </c>
+      <c r="G28" t="s">
+        <v>175</v>
+      </c>
+      <c r="H28" t="s">
+        <v>176</v>
+      </c>
+      <c r="J28" t="s">
+        <v>30</v>
       </c>
       <c r="K28">
         <v>1</v>
       </c>
-      <c r="N28" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L28" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="N28" s="5">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" t="s">
-        <v>101</v>
+        <v>22</v>
+      </c>
+      <c r="D29">
+        <v>1200</v>
+      </c>
+      <c r="F29" t="s">
+        <v>181</v>
+      </c>
+      <c r="G29" t="s">
+        <v>180</v>
+      </c>
+      <c r="H29" t="s">
+        <v>182</v>
+      </c>
+      <c r="J29" t="s">
+        <v>30</v>
       </c>
       <c r="K29">
         <v>1</v>
       </c>
-      <c r="N29" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L29" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="N29" s="5">
+        <f t="shared" si="1"/>
+        <v>0.17</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="C30" t="s">
-        <v>103</v>
-      </c>
-      <c r="D30">
-        <v>20</v>
+        <v>83</v>
+      </c>
+      <c r="D30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" t="s">
+        <v>85</v>
+      </c>
+      <c r="G30" t="s">
+        <v>86</v>
+      </c>
+      <c r="J30" t="s">
+        <v>30</v>
       </c>
       <c r="K30">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="L30" s="1">
+        <v>4.3</v>
       </c>
       <c r="N30" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+        <v>4.3</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" t="s">
+        <v>89</v>
+      </c>
+      <c r="F31" t="s">
+        <v>90</v>
+      </c>
+      <c r="G31" t="s">
+        <v>91</v>
+      </c>
+      <c r="J31" t="s">
         <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>104</v>
-      </c>
-      <c r="C31" t="s">
-        <v>103</v>
-      </c>
-      <c r="D31">
-        <v>10</v>
       </c>
       <c r="K31">
         <v>1</v>
       </c>
+      <c r="L31" s="1">
+        <v>4.3</v>
+      </c>
       <c r="N31" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>105</v>
-      </c>
-      <c r="C32" t="s">
-        <v>103</v>
-      </c>
-      <c r="D32">
-        <v>15</v>
-      </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="N32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" t="s">
-        <v>107</v>
-      </c>
-      <c r="D33" t="s">
-        <v>108</v>
-      </c>
-      <c r="K33">
-        <v>1</v>
-      </c>
-      <c r="N33" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>109</v>
-      </c>
-      <c r="C34" t="s">
-        <v>110</v>
-      </c>
-      <c r="D34" t="s">
-        <v>111</v>
-      </c>
-      <c r="K34">
-        <v>2</v>
-      </c>
-      <c r="N34" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35">
-        <v>510</v>
-      </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-      <c r="N35" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>113</v>
-      </c>
-      <c r="C36" t="s">
-        <v>25</v>
-      </c>
-      <c r="D36">
-        <v>330</v>
-      </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-      <c r="N36" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>114</v>
-      </c>
-      <c r="C37" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37">
-        <v>1200</v>
-      </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-      <c r="N37" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>115</v>
-      </c>
-      <c r="C38" t="s">
-        <v>116</v>
-      </c>
-      <c r="D38" t="s">
-        <v>117</v>
-      </c>
-      <c r="F38" t="s">
-        <v>118</v>
-      </c>
-      <c r="G38" t="s">
-        <v>119</v>
-      </c>
-      <c r="J38" t="s">
-        <v>33</v>
-      </c>
-      <c r="K38">
-        <v>1</v>
-      </c>
-      <c r="L38" s="1">
         <v>4.3</v>
       </c>
-      <c r="N38" s="1">
-        <v>4.3</v>
-      </c>
-      <c r="O38" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>121</v>
-      </c>
-      <c r="C39" t="s">
-        <v>116</v>
-      </c>
-      <c r="D39" t="s">
-        <v>122</v>
-      </c>
-      <c r="F39" t="s">
-        <v>123</v>
-      </c>
-      <c r="G39" t="s">
-        <v>124</v>
-      </c>
-      <c r="J39" t="s">
-        <v>33</v>
-      </c>
-      <c r="K39">
-        <v>1</v>
-      </c>
-      <c r="L39" s="1">
-        <v>4.3</v>
-      </c>
-      <c r="N39" s="1">
-        <v>4.3</v>
-      </c>
-      <c r="O39" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>126</v>
-      </c>
-      <c r="C40" t="s">
-        <v>107</v>
-      </c>
-      <c r="D40" t="s">
-        <v>107</v>
-      </c>
-      <c r="K40">
-        <v>1</v>
-      </c>
-      <c r="N40" s="1">
-        <v>0</v>
+      <c r="O31" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="O4" r:id="rId1" xr:uid="{CAE86528-5FD1-495A-800F-6F73D0BDBE19}"/>
+    <hyperlink ref="O3" r:id="rId2" xr:uid="{0612712E-BBD1-4610-B6AC-FC4B36489A54}"/>
+    <hyperlink ref="O7" r:id="rId3" xr:uid="{C8268E2B-43D1-4E52-8DB5-6CCAB42FDB66}"/>
+    <hyperlink ref="O8" r:id="rId4" xr:uid="{A287393F-FDB8-4094-943F-0DCA5E430BAD}"/>
+    <hyperlink ref="O9" r:id="rId5" xr:uid="{91C03B14-A122-4E52-8D9B-FC6DD56AC456}"/>
+    <hyperlink ref="O10" r:id="rId6" xr:uid="{A390A8E6-32AA-4894-8453-8C7BE2404EDC}"/>
+    <hyperlink ref="O11" r:id="rId7" xr:uid="{DFA265A0-2F3D-45C5-9CE1-4B0CA6D7733D}"/>
+    <hyperlink ref="O12" r:id="rId8" xr:uid="{61C06FA9-4AAC-48DF-93F5-88F9E690306C}"/>
+    <hyperlink ref="O19" r:id="rId9" xr:uid="{42D9BD40-EDE3-4CD4-9C27-EA8E79DEB555}"/>
+    <hyperlink ref="O20" r:id="rId10" xr:uid="{5BFD06F5-44D4-4467-807E-CE88F5F78FA2}"/>
+    <hyperlink ref="O21" r:id="rId11" xr:uid="{4263C64E-6376-4318-A26C-E3E48EC3506A}"/>
+    <hyperlink ref="O22" r:id="rId12" xr:uid="{77DF6A55-F103-4B43-B58D-C0718B8DDB14}"/>
+    <hyperlink ref="O24" r:id="rId13" xr:uid="{A15FFC1F-3074-4879-B9B6-236672DA470D}"/>
+    <hyperlink ref="O13" r:id="rId14" xr:uid="{8EDD1C03-9761-40C8-B2AE-B2DA1615F435}"/>
+    <hyperlink ref="O30" r:id="rId15" xr:uid="{8A063CE5-7FFA-499E-89EA-A45C9620CD51}"/>
+    <hyperlink ref="O31" r:id="rId16" xr:uid="{8ECAEEE5-734D-4F6B-BC93-607E6E75FF8E}"/>
+    <hyperlink ref="O26" r:id="rId17" xr:uid="{7B1037B4-F809-4964-BA40-2335D37DDF3C}"/>
+    <hyperlink ref="O5" r:id="rId18" xr:uid="{878D7D5B-787E-4D59-A792-DD272D2E4BB0}"/>
+    <hyperlink ref="O6" r:id="rId19" xr:uid="{5294A2A7-AAB3-4BAA-8514-1067A2ADAF83}"/>
+    <hyperlink ref="O14" r:id="rId20" xr:uid="{88A39085-0A11-434E-8C7D-5F9C0E9510FC}"/>
+    <hyperlink ref="O15" r:id="rId21" xr:uid="{84172912-DEA4-45A5-AFD4-C46DD779AE6B}"/>
+    <hyperlink ref="O16" r:id="rId22" xr:uid="{E2241A5B-DFE8-4BD6-950D-24BA59C0E63F}"/>
+    <hyperlink ref="O17" r:id="rId23" xr:uid="{E0F19EAC-0C25-4307-BEE1-FF639D1575E8}"/>
+    <hyperlink ref="O18" r:id="rId24" xr:uid="{3A6C3C57-1D99-43EA-9B1A-6ADA8AED5150}"/>
+    <hyperlink ref="O27" r:id="rId25" xr:uid="{15B213CF-B9C4-4C79-ABCB-EA5CBB310E94}"/>
+    <hyperlink ref="O28" r:id="rId26" xr:uid="{FA8CA124-4CFD-4DB6-BBF2-8DE834202A90}"/>
+    <hyperlink ref="O29" r:id="rId27" xr:uid="{5062B8B3-99CB-4539-8703-CC446B6C0F57}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documentation/Pack Voltage Rev 1 Full BOM.xlsx
+++ b/Documentation/Pack Voltage Rev 1 Full BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b431e84c343b5b9e/Documents/GitHub/PackVoltage_Hardware/Documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alisa\Documents\GitHub\PackVoltage_Hardware\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="249" documentId="8_{FFA70C19-7E72-4C2F-BE66-4143E668B06D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{815CF2B1-EC1A-4DF7-9060-766CFC9C82BC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707D7180-A1E0-49B5-8479-7E69863CD7D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PackVoltage_2021_Rev1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="186">
   <si>
     <t>Id</t>
   </si>
@@ -69,15 +69,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>G***</t>
-  </si>
-  <si>
-    <t>Alee_Sig</t>
-  </si>
-  <si>
-    <t>LOGO</t>
-  </si>
-  <si>
     <t>Conn6</t>
   </si>
   <si>
@@ -405,9 +396,6 @@
     <t>Anderson Contact</t>
   </si>
   <si>
-    <t xml:space="preserve">1335G1 </t>
-  </si>
-  <si>
     <t>https://powerwerx.com/1327g8bk-anderson-powerpole-housing-blue</t>
   </si>
   <si>
@@ -598,17 +586,19 @@
   </si>
   <si>
     <t>https://www.digikey.com/en/products/detail/yageo/RT0603DRD071K2L/1035462?s=N4IgTCBcDaIEoBUAMA2JBmAInTSDsAjANJgAyIAugL5A</t>
+  </si>
+  <si>
+    <t>1335G1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -751,19 +741,24 @@
     </font>
     <font>
       <u/>
-      <sz val="10"/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -946,7 +941,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1061,21 +1056,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1120,19 +1100,37 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1489,30 +1487,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="144.7265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="144.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1532,7 +1530,7 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J1" t="s">
         <v>6</v>
@@ -1553,1151 +1551,1202 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="4">
+        <v>705430039</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="L2" s="5">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="5">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="4">
+        <v>705430114</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1</v>
+      </c>
+      <c r="L3" s="5">
+        <v>1.84</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="5">
+        <v>1.84</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3300</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="4">
+        <v>9</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="5">
+        <v>3.42</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="4">
+        <v>10</v>
+      </c>
+      <c r="L5" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="4">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="L6" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="5">
+        <v>1.69</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="4">
+        <v>10</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="5">
+        <v>1</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1</v>
+      </c>
+      <c r="L8" s="5">
+        <v>30</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="5">
+        <v>30</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="4">
+        <v>10</v>
+      </c>
+      <c r="L9" s="5">
+        <v>2.36</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="5">
+        <v>23.6</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="4">
+        <v>10</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="4">
+        <v>10</v>
+      </c>
+      <c r="L11" s="5">
+        <v>5.25</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="5">
+        <v>52.5</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="4">
+        <v>12</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0.32</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="5">
+        <v>3.88</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>14</v>
       </c>
-      <c r="K2">
+      <c r="B13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="4">
+        <v>10</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="5">
+        <v>7.26</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="4">
+        <v>2</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="5">
+        <v>1.24</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" s="4">
+        <v>4</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="5">
+        <v>3.4</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="4">
+        <v>2</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" s="4">
+        <v>2</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="5">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K18" s="4">
+        <v>12</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0.37</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="5">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K19" s="4">
         <v>1</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="N2" s="1">
-        <f t="shared" ref="N2:N12" si="0">L2*K2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="L19" s="5">
+        <v>0.39</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="5">
+        <v>0.39</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>21</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K20" s="4">
+        <v>12</v>
+      </c>
+      <c r="L20" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="5">
+        <v>4.2</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
+      <c r="C21" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K21" s="4">
+        <v>24</v>
+      </c>
+      <c r="L21" s="5">
+        <v>0.59</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="5">
+        <v>14.16</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" s="4">
+        <v>20</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" s="4">
+        <v>8</v>
+      </c>
+      <c r="L22" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="5">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" s="4">
+        <v>10</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K23" s="4">
+        <v>1</v>
+      </c>
+      <c r="L23" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="4">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H3">
-        <v>705430039</v>
-      </c>
-      <c r="J3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3">
+      <c r="E24" s="2"/>
+      <c r="F24" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K24" s="4">
         <v>1</v>
       </c>
-      <c r="L3" s="7">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="N3" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="L24" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
+      <c r="C25" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K25" s="4">
+        <v>10</v>
+      </c>
+      <c r="L25" s="5">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="5">
+        <v>11.6</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>27</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>117</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H4">
-        <v>705430114</v>
-      </c>
-      <c r="J4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4">
+      <c r="D26" s="4">
+        <v>510</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26" s="4">
         <v>1</v>
       </c>
-      <c r="L4" s="5">
-        <v>1.84</v>
-      </c>
-      <c r="N4" s="1">
-        <f t="shared" si="0"/>
-        <v>1.84</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5">
-        <v>3300</v>
-      </c>
-      <c r="F5" t="s">
-        <v>149</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H5" t="s">
-        <v>150</v>
-      </c>
-      <c r="J5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5">
-        <v>9</v>
-      </c>
-      <c r="L5" s="5">
-        <v>0.38</v>
-      </c>
-      <c r="N5" s="1">
-        <f t="shared" si="0"/>
-        <v>3.42</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>152</v>
-      </c>
-      <c r="G6" t="s">
-        <v>153</v>
-      </c>
-      <c r="H6" t="s">
-        <v>154</v>
-      </c>
-      <c r="J6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6">
-        <v>10</v>
-      </c>
-      <c r="L6" s="5">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="N6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.72</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="L26" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>28</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="4">
+        <v>330</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I27" s="2"/>
+      <c r="J27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" t="s">
-        <v>110</v>
-      </c>
-      <c r="J7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7">
-        <v>12</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="N7" s="1">
-        <f t="shared" si="0"/>
-        <v>1.6919999999999997</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" t="s">
-        <v>109</v>
-      </c>
-      <c r="J8" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8">
-        <v>10</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="N8" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" t="s">
-        <v>108</v>
-      </c>
-      <c r="J9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9" s="1">
-        <v>30</v>
-      </c>
-      <c r="N9" s="1">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" t="s">
-        <v>183</v>
-      </c>
-      <c r="H10" t="s">
-        <v>107</v>
-      </c>
-      <c r="J10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10">
-        <v>10</v>
-      </c>
-      <c r="L10" s="1">
-        <v>2.36</v>
-      </c>
-      <c r="N10" s="1">
-        <f t="shared" si="0"/>
-        <v>23.599999999999998</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" t="s">
-        <v>111</v>
-      </c>
-      <c r="H11" t="s">
-        <v>106</v>
-      </c>
-      <c r="J11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11">
-        <v>10</v>
-      </c>
-      <c r="L11" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="N11" s="1">
-        <f t="shared" si="0"/>
-        <v>6.5</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" t="s">
-        <v>113</v>
-      </c>
-      <c r="G12" t="s">
-        <v>112</v>
-      </c>
-      <c r="H12" t="s">
-        <v>114</v>
-      </c>
-      <c r="J12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12">
-        <v>10</v>
-      </c>
-      <c r="L12" s="1">
-        <v>5.25</v>
-      </c>
-      <c r="N12" s="1">
-        <f t="shared" si="0"/>
-        <v>52.5</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H13" t="s">
-        <v>103</v>
-      </c>
-      <c r="J13" t="s">
-        <v>30</v>
-      </c>
-      <c r="K13">
-        <v>12</v>
-      </c>
-      <c r="L13" s="1">
-        <v>0.32300000000000001</v>
-      </c>
-      <c r="N13" s="1">
-        <f>L13*K13</f>
-        <v>3.8760000000000003</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="F14" t="s">
-        <v>157</v>
-      </c>
-      <c r="G14" t="s">
-        <v>156</v>
-      </c>
-      <c r="H14" t="s">
-        <v>158</v>
-      </c>
-      <c r="J14" t="s">
-        <v>30</v>
-      </c>
-      <c r="K14">
-        <v>10</v>
-      </c>
-      <c r="L14" s="5">
-        <v>0.72599999999999998</v>
-      </c>
-      <c r="N14" s="5">
-        <f>L14*K14</f>
-        <v>7.26</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" t="s">
-        <v>162</v>
-      </c>
-      <c r="G15" t="s">
-        <v>160</v>
-      </c>
-      <c r="H15" t="s">
-        <v>161</v>
-      </c>
-      <c r="J15" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15" s="5">
-        <v>0.62</v>
-      </c>
-      <c r="N15" s="5">
-        <f t="shared" ref="N15:N29" si="1">L15*K15</f>
-        <v>1.24</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" t="s">
-        <v>165</v>
-      </c>
-      <c r="G16" t="s">
-        <v>164</v>
-      </c>
-      <c r="H16" t="s">
-        <v>166</v>
-      </c>
-      <c r="J16" t="s">
-        <v>30</v>
-      </c>
-      <c r="K16">
-        <v>4</v>
-      </c>
-      <c r="L16" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="N16" s="5">
-        <f t="shared" si="1"/>
-        <v>3.4</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" t="s">
-        <v>168</v>
-      </c>
-      <c r="G17" t="s">
-        <v>170</v>
-      </c>
-      <c r="H17" t="s">
-        <v>169</v>
-      </c>
-      <c r="J17" t="s">
-        <v>30</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17" s="5">
-        <v>0.23</v>
-      </c>
-      <c r="N17" s="5">
-        <f t="shared" si="1"/>
-        <v>0.46</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" t="s">
-        <v>172</v>
-      </c>
-      <c r="G18" t="s">
-        <v>171</v>
-      </c>
-      <c r="H18" t="s">
-        <v>173</v>
-      </c>
-      <c r="J18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K18">
-        <v>2</v>
-      </c>
-      <c r="L18" s="5">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="N18" s="5">
-        <f t="shared" si="1"/>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" t="s">
-        <v>98</v>
-      </c>
-      <c r="F19" t="s">
-        <v>100</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="J19" t="s">
-        <v>129</v>
-      </c>
-      <c r="K19">
-        <v>12</v>
-      </c>
-      <c r="L19" s="5">
-        <v>0.37</v>
-      </c>
-      <c r="N19" s="5">
-        <f t="shared" si="1"/>
-        <v>4.4399999999999995</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="J20" t="s">
-        <v>129</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20" s="5">
-        <v>0.39</v>
-      </c>
-      <c r="N20" s="5">
-        <f t="shared" si="1"/>
-        <v>0.39</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" t="s">
-        <v>99</v>
-      </c>
-      <c r="F21" t="s">
-        <v>101</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="J21" t="s">
-        <v>129</v>
-      </c>
-      <c r="K21">
-        <v>12</v>
-      </c>
-      <c r="L21" s="5">
-        <v>0.35</v>
-      </c>
-      <c r="N21" s="5">
-        <f t="shared" si="1"/>
-        <v>4.1999999999999993</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C22" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F22" t="s">
-        <v>123</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="J22" t="s">
-        <v>129</v>
-      </c>
-      <c r="K22">
-        <v>24</v>
-      </c>
-      <c r="L22" s="5">
-        <v>0.59</v>
-      </c>
-      <c r="N22" s="5">
-        <f t="shared" si="1"/>
-        <v>14.16</v>
-      </c>
-      <c r="O22" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" t="s">
-        <v>130</v>
-      </c>
-      <c r="D23">
-        <v>20</v>
-      </c>
-      <c r="F23" t="s">
-        <v>132</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="J23" t="s">
-        <v>30</v>
-      </c>
-      <c r="K23">
-        <v>8</v>
-      </c>
-      <c r="L23" s="5">
-        <v>0.27200000000000002</v>
-      </c>
-      <c r="N23" s="5">
-        <f t="shared" si="1"/>
-        <v>2.1760000000000002</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" t="s">
-        <v>130</v>
-      </c>
-      <c r="D24">
-        <v>10</v>
-      </c>
-      <c r="F24" t="s">
-        <v>133</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="J24" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24" s="5">
-        <v>0.88</v>
-      </c>
-      <c r="N24" s="5">
-        <f t="shared" si="1"/>
-        <v>0.88</v>
-      </c>
-      <c r="O24" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" t="s">
-        <v>130</v>
-      </c>
-      <c r="D25">
-        <v>15</v>
-      </c>
-      <c r="F25" t="s">
-        <v>134</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="J25" t="s">
-        <v>30</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25" s="5">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="N25" s="5">
-        <f t="shared" si="1"/>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="C26" t="s">
-        <v>131</v>
-      </c>
-      <c r="F26" t="s">
-        <v>131</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="J26" t="s">
-        <v>30</v>
-      </c>
-      <c r="K26">
-        <v>10</v>
-      </c>
-      <c r="L26" s="5">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="N26" s="5">
-        <f t="shared" si="1"/>
-        <v>11.6</v>
-      </c>
-      <c r="O26" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27">
-        <v>510</v>
-      </c>
-      <c r="F27" t="s">
-        <v>178</v>
-      </c>
-      <c r="G27" t="s">
-        <v>177</v>
-      </c>
-      <c r="H27" t="s">
-        <v>179</v>
-      </c>
-      <c r="J27" t="s">
-        <v>30</v>
-      </c>
-      <c r="K27">
+      <c r="K27" s="4">
         <v>1</v>
       </c>
       <c r="L27" s="5">
         <v>0.1</v>
       </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="5">
-        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="O27" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O27" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1200</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="I28" s="2"/>
+      <c r="J28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K28" s="4">
+        <v>1</v>
+      </c>
+      <c r="L28" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>30</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28">
-        <v>330</v>
-      </c>
-      <c r="F28" t="s">
-        <v>174</v>
-      </c>
-      <c r="G28" t="s">
-        <v>175</v>
-      </c>
-      <c r="H28" t="s">
-        <v>176</v>
-      </c>
-      <c r="J28" t="s">
-        <v>30</v>
-      </c>
-      <c r="K28">
+      <c r="D29" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K29" s="4">
         <v>1</v>
       </c>
-      <c r="L28" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="N28" s="5">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="O28" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29">
-        <v>1200</v>
-      </c>
-      <c r="F29" t="s">
-        <v>181</v>
-      </c>
-      <c r="G29" t="s">
-        <v>180</v>
-      </c>
-      <c r="H29" t="s">
-        <v>182</v>
-      </c>
-      <c r="J29" t="s">
-        <v>30</v>
-      </c>
-      <c r="K29">
+      <c r="L29" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>31</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K30" s="4">
         <v>1</v>
       </c>
-      <c r="L29" s="5">
-        <v>0.17</v>
-      </c>
-      <c r="N29" s="5">
-        <f t="shared" si="1"/>
-        <v>0.17</v>
-      </c>
-      <c r="O29" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" t="s">
-        <v>84</v>
-      </c>
-      <c r="F30" t="s">
-        <v>85</v>
-      </c>
-      <c r="G30" t="s">
-        <v>86</v>
-      </c>
-      <c r="J30" t="s">
-        <v>30</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30" s="1">
+      <c r="L30" s="5">
         <v>4.3</v>
       </c>
-      <c r="N30" s="1">
+      <c r="M30" s="2"/>
+      <c r="N30" s="5">
         <v>4.3</v>
       </c>
-      <c r="O30" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" t="s">
-        <v>83</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="O30" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="F31" t="s">
-        <v>90</v>
-      </c>
-      <c r="G31" t="s">
-        <v>91</v>
-      </c>
-      <c r="J31" t="s">
-        <v>30</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31" s="1">
-        <v>4.3</v>
-      </c>
-      <c r="N31" s="1">
-        <v>4.3</v>
-      </c>
-      <c r="O31" s="4" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O4" r:id="rId1" xr:uid="{CAE86528-5FD1-495A-800F-6F73D0BDBE19}"/>
-    <hyperlink ref="O3" r:id="rId2" xr:uid="{0612712E-BBD1-4610-B6AC-FC4B36489A54}"/>
-    <hyperlink ref="O7" r:id="rId3" xr:uid="{C8268E2B-43D1-4E52-8DB5-6CCAB42FDB66}"/>
-    <hyperlink ref="O8" r:id="rId4" xr:uid="{A287393F-FDB8-4094-943F-0DCA5E430BAD}"/>
-    <hyperlink ref="O9" r:id="rId5" xr:uid="{91C03B14-A122-4E52-8D9B-FC6DD56AC456}"/>
-    <hyperlink ref="O10" r:id="rId6" xr:uid="{A390A8E6-32AA-4894-8453-8C7BE2404EDC}"/>
-    <hyperlink ref="O11" r:id="rId7" xr:uid="{DFA265A0-2F3D-45C5-9CE1-4B0CA6D7733D}"/>
-    <hyperlink ref="O12" r:id="rId8" xr:uid="{61C06FA9-4AAC-48DF-93F5-88F9E690306C}"/>
-    <hyperlink ref="O19" r:id="rId9" xr:uid="{42D9BD40-EDE3-4CD4-9C27-EA8E79DEB555}"/>
-    <hyperlink ref="O20" r:id="rId10" xr:uid="{5BFD06F5-44D4-4467-807E-CE88F5F78FA2}"/>
-    <hyperlink ref="O21" r:id="rId11" xr:uid="{4263C64E-6376-4318-A26C-E3E48EC3506A}"/>
-    <hyperlink ref="O22" r:id="rId12" xr:uid="{77DF6A55-F103-4B43-B58D-C0718B8DDB14}"/>
-    <hyperlink ref="O24" r:id="rId13" xr:uid="{A15FFC1F-3074-4879-B9B6-236672DA470D}"/>
-    <hyperlink ref="O13" r:id="rId14" xr:uid="{8EDD1C03-9761-40C8-B2AE-B2DA1615F435}"/>
-    <hyperlink ref="O30" r:id="rId15" xr:uid="{8A063CE5-7FFA-499E-89EA-A45C9620CD51}"/>
-    <hyperlink ref="O31" r:id="rId16" xr:uid="{8ECAEEE5-734D-4F6B-BC93-607E6E75FF8E}"/>
-    <hyperlink ref="O26" r:id="rId17" xr:uid="{7B1037B4-F809-4964-BA40-2335D37DDF3C}"/>
-    <hyperlink ref="O5" r:id="rId18" xr:uid="{878D7D5B-787E-4D59-A792-DD272D2E4BB0}"/>
-    <hyperlink ref="O6" r:id="rId19" xr:uid="{5294A2A7-AAB3-4BAA-8514-1067A2ADAF83}"/>
-    <hyperlink ref="O14" r:id="rId20" xr:uid="{88A39085-0A11-434E-8C7D-5F9C0E9510FC}"/>
-    <hyperlink ref="O15" r:id="rId21" xr:uid="{84172912-DEA4-45A5-AFD4-C46DD779AE6B}"/>
-    <hyperlink ref="O16" r:id="rId22" xr:uid="{E2241A5B-DFE8-4BD6-950D-24BA59C0E63F}"/>
-    <hyperlink ref="O17" r:id="rId23" xr:uid="{E0F19EAC-0C25-4307-BEE1-FF639D1575E8}"/>
-    <hyperlink ref="O18" r:id="rId24" xr:uid="{3A6C3C57-1D99-43EA-9B1A-6ADA8AED5150}"/>
-    <hyperlink ref="O27" r:id="rId25" xr:uid="{15B213CF-B9C4-4C79-ABCB-EA5CBB310E94}"/>
-    <hyperlink ref="O28" r:id="rId26" xr:uid="{FA8CA124-4CFD-4DB6-BBF2-8DE834202A90}"/>
-    <hyperlink ref="O29" r:id="rId27" xr:uid="{5062B8B3-99CB-4539-8703-CC446B6C0F57}"/>
+    <hyperlink ref="O2" r:id="rId1" xr:uid="{F7F6C9CD-D570-4173-9E52-69470884D618}"/>
+    <hyperlink ref="O3" r:id="rId2" xr:uid="{85AFF59C-F561-4DA5-9D63-1CCF42645A59}"/>
+    <hyperlink ref="O4" r:id="rId3" xr:uid="{E43B1774-C49B-44D0-A670-C5E01F77FB3C}"/>
+    <hyperlink ref="O5" r:id="rId4" xr:uid="{196C10B3-4A61-4018-8569-26EA6BD30050}"/>
+    <hyperlink ref="O6" r:id="rId5" xr:uid="{283289F3-E60F-4093-BAB5-ACB38D7EF07F}"/>
+    <hyperlink ref="O7" r:id="rId6" xr:uid="{5E24798C-20A6-4044-9ACB-ABF6E0CCCC74}"/>
+    <hyperlink ref="O8" r:id="rId7" xr:uid="{926FB8A0-6F5A-4CA8-83AE-2A90DCE91A11}"/>
+    <hyperlink ref="O9" r:id="rId8" xr:uid="{EF91F431-63BA-4C33-BD5A-3526F410D312}"/>
+    <hyperlink ref="O10" r:id="rId9" xr:uid="{1D986CB0-A87A-4D88-AE27-949FAC6A93CA}"/>
+    <hyperlink ref="O11" r:id="rId10" xr:uid="{0158B6BF-77DF-422D-8EC4-06A2C74FD53D}"/>
+    <hyperlink ref="O12" r:id="rId11" xr:uid="{14482BD9-5877-4E6E-900D-912ECAB666A9}"/>
+    <hyperlink ref="O13" r:id="rId12" xr:uid="{95861C04-FB23-4BBE-94CC-A87074A70B82}"/>
+    <hyperlink ref="O14" r:id="rId13" xr:uid="{BD6DB8B1-8BF6-4AC0-8F65-AB7210C6ADFC}"/>
+    <hyperlink ref="O15" r:id="rId14" xr:uid="{13E01F73-FA1A-425A-A0BD-94CAADD81C2D}"/>
+    <hyperlink ref="O16" r:id="rId15" xr:uid="{1630E6A4-58F0-4923-85D8-D4CCEB5390EE}"/>
+    <hyperlink ref="O17" r:id="rId16" xr:uid="{EF698D53-7E54-4EFC-B8FC-13F5538A977A}"/>
+    <hyperlink ref="O18" r:id="rId17" xr:uid="{7F6FB09C-C519-40B2-B34A-E9B07370E5CA}"/>
+    <hyperlink ref="O19" r:id="rId18" xr:uid="{B139742C-9595-4162-A641-F3B777CE9FFE}"/>
+    <hyperlink ref="O20" r:id="rId19" xr:uid="{8BBCF95A-AECE-406F-9670-0DE48070C1C3}"/>
+    <hyperlink ref="O21" r:id="rId20" xr:uid="{18873DB2-619D-426B-AFB5-03BAE6221575}"/>
+    <hyperlink ref="O22" r:id="rId21" xr:uid="{6ED4A2D2-0EA0-4CF1-A0B6-176F0ECB8D02}"/>
+    <hyperlink ref="O23" r:id="rId22" xr:uid="{EBFFE5D8-1FC5-47B6-9D61-9925D812F9B2}"/>
+    <hyperlink ref="O24" r:id="rId23" xr:uid="{7A802BF9-5C24-4C7C-99FB-73CBE7C09F13}"/>
+    <hyperlink ref="O25" r:id="rId24" xr:uid="{F96E8CD1-9AD6-414B-977B-08CE4747F137}"/>
+    <hyperlink ref="O26" r:id="rId25" xr:uid="{18A1C07E-3AF0-44B6-9A8A-C3DE1D693367}"/>
+    <hyperlink ref="O27" r:id="rId26" xr:uid="{B7C3F0E7-6F52-4B5E-ADB1-3B883B5ECFCA}"/>
+    <hyperlink ref="O28" r:id="rId27" xr:uid="{B4691C20-251A-4656-8C90-C8F3053D0686}"/>
+    <hyperlink ref="O29" r:id="rId28" xr:uid="{73A30C25-DECC-4CA7-91BA-DA45151D4985}"/>
+    <hyperlink ref="O30" r:id="rId29" xr:uid="{64BB7BCA-FCE4-4749-AD63-EAA7D7CC32E8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId30"/>
 </worksheet>
 </file>